--- a/Chatbot_DB/databases/basic_datas.xlsx
+++ b/Chatbot_DB/databases/basic_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kang\VScodeK\DevRoot\Dropbox\Chatbot_Project\Chatbot_DB\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750B5EA-3B23-4D78-A893-9BF13D147199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30F0F7-5096-4B9A-BF80-5F3A3E14006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9012" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,15 +63,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>!도움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요. 챗봇입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music순위입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_NAME}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!검색 {B_NAME}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_NAME}에 대한 노래를 검색합니다. 재생목록에 추가할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpLink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -439,9 +487,6 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -451,10 +496,79 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
